--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Parallel-Computing-Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BD6347-0B42-4A30-B4F8-52E7BE4E72D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,122 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>gpu_3.cu</t>
+  </si>
+  <si>
+    <t>V2(Shared Memory for centroids in K1)</t>
+  </si>
+  <si>
+    <t>Added Shared Memory Centroids for K1</t>
+  </si>
+  <si>
+    <t>gpu_3_1.cu</t>
+  </si>
+  <si>
+    <t>gpu_3_2.cu</t>
+  </si>
+  <si>
+    <t>Converge after</t>
+  </si>
+  <si>
+    <t>update_cluster_centroids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.99%  12.738ms       </t>
+  </si>
+  <si>
+    <t>17  749.27us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.39%  9.0448ms      </t>
+  </si>
+  <si>
+    <t>12 753.73us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.19%  5.0311ms      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17  295.95us</t>
+  </si>
+  <si>
+    <t>assign_data_points_to_centroids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24%  1.2651ms      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17  74.417us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59%  943.18us       </t>
+  </si>
+  <si>
+    <t>12  78.598us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.17%  1.3404ms      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17  78.847us</t>
+  </si>
+  <si>
+    <t>CUDA memcpy HtoD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86%  1.0531ms       </t>
+  </si>
+  <si>
+    <t>18  58.503us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19%  789.23us     </t>
+  </si>
+  <si>
+    <t>13  60.709us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.97%  809.10us      </t>
+  </si>
+  <si>
+    <t>18  44.949us</t>
+  </si>
+  <si>
+    <t>CUDA memcpy DtoH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87%  287.40us       </t>
+  </si>
+  <si>
+    <t>35  8.2110us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 1.80%  197.35us      </t>
+  </si>
+  <si>
+    <t>25  7.8930us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60%  191.94us     </t>
+  </si>
+  <si>
+    <t>35  5.4840us</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> V3</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +147,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF24292E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -45,12 +183,107 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +563,188 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27.54296875" customWidth="1"/>
+    <col min="2" max="2" width="28.08984375" customWidth="1"/>
+    <col min="3" max="3" width="26.453125" customWidth="1"/>
+    <col min="4" max="4" width="38.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="7"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="8"/>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="9"/>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5">
+        <v>4.7E-2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="9"/>
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="9"/>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="9"/>
+      <c r="B11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="9"/>
+      <c r="B13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>